--- a/Discharge/Station2_2021-07-20_1308.xlsx
+++ b/Discharge/Station2_2021-07-20_1308.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efarq\OneDrive\Documents\Ecuador2021\Ecuador2021\Discharge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D2C956D-2AC7-4AD5-B1C6-DD3276D58094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{8D2C956D-2AC7-4AD5-B1C6-DD3276D58094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68F39CD7-D19D-49FE-837F-7467ED7DEA94}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="340" windowWidth="14290" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -45,9 +45,6 @@
     <t>velocity</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>segment</t>
   </si>
   <si>
@@ -55,6 +52,12 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Atotal</t>
   </si>
 </sst>
 </file>
@@ -372,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,24 +394,36 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <f>A2/100</f>
@@ -418,8 +433,24 @@
         <f>SUM(E2:E20)</f>
         <v>5.8285000000000003E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <f>(D2-0)*B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G11)</f>
+        <v>7.9499999999999987E-2</v>
+      </c>
+      <c r="J2">
+        <f>H2</f>
+        <v>7.9499999999999987E-2</v>
+      </c>
+      <c r="K2">
+        <f>F2</f>
+        <v>5.8285000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>15</v>
       </c>
@@ -434,11 +465,15 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E19" si="0">(D3-D2)*(B3/100)*C3</f>
+        <f t="shared" ref="E3:E4" si="0">(D3-D2)*(B3/100)*C3</f>
         <v>8.2499999999999987E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <f>(D3-D2)*B3/100</f>
+        <v>1.4999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20</v>
       </c>
@@ -456,8 +491,12 @@
         <f t="shared" si="0"/>
         <v>9.0750000000000032E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="1">(D4-D3)*B4/100</f>
+        <v>1.6500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>30</v>
       </c>
@@ -475,8 +514,12 @@
         <f>(D5-D4)*(B5/100)*C5</f>
         <v>1.3599999999999998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>40</v>
       </c>
@@ -487,15 +530,19 @@
         <v>0.75</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D15" si="1">(A6/100+(A7/100-A6/100)/2)</f>
+        <f t="shared" ref="D6:D8" si="2">(A6/100+(A7/100-A6/100)/2)</f>
         <v>0.45</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E15" si="2">(D6-D5)*(B6/100)*C6</f>
+        <f t="shared" ref="E6:E8" si="3">(D6-D5)*(B6/100)*C6</f>
         <v>1.2000000000000005E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>50</v>
       </c>
@@ -506,15 +553,19 @@
         <v>0.98</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1760000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>55</v>
       </c>
@@ -525,17 +576,61 @@
         <v>0.9</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999956E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999949E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>60</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Discharge/Station2_2021-07-20_1308.xlsx
+++ b/Discharge/Station2_2021-07-20_1308.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="8_{8D2C956D-2AC7-4AD5-B1C6-DD3276D58094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68F39CD7-D19D-49FE-837F-7467ED7DEA94}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="340" windowWidth="14290" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9090" yWindow="1000" windowWidth="10110" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,6 +110,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
